--- a/График.xlsx
+++ b/График.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khaimov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khaimov\WebstormProjects\brain-gym\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B4C285-DADB-4DE8-93BC-AA1210B78709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17730"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,7 +89,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -100,7 +107,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -137,7 +144,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -163,7 +169,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -283,13 +289,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.45</c:v>
@@ -357,7 +363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1741555984"/>
@@ -430,7 +436,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -998,7 +1004,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1278,11 +1290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1314,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1322,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,7 +1348,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>SUM(B2:B5)</f>
-        <v>1</v>
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1357,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries theme="1" tint="0.499984740745262"/>
           <x14:colorNegative theme="1" tint="0.249977111117893"/>
           <x14:colorAxis rgb="FF000000"/>
